--- a/Manuscript_Code/glare/supplementary/Supplementary Table S3.xlsx
+++ b/Manuscript_Code/glare/supplementary/Supplementary Table S3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexdseo/Documents/GLARE_FINAL/Supplementary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455EEFA6-C66D-C647-BC70-31707CC6EE34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F37B24-2C13-8D4E-9160-9C20F6538D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="760" windowWidth="28040" windowHeight="17440" xr2:uid="{C16D6F13-B82D-3F43-9429-8027B9A0F05A}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Cell type prediction'!$A$3:$J$3</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2591" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2593" uniqueCount="749">
   <si>
     <t>Treatment</t>
   </si>
@@ -1513,9 +1513,6 @@
   </si>
   <si>
     <t>Cluster ID</t>
-  </si>
-  <si>
-    <t>DEG proportion (%) (# of DEG genes / # genes) * 100</t>
   </si>
   <si>
     <t>KEGG</t>
@@ -2311,6 +2308,15 @@
       </rPr>
       <t>Additionally, we provide KEGG pathways and enriched Gene Ontology (GO) terms for sub-clusters produced through cell type prediction ("Matched genes" for each cell type predictions). Sub-clusters with similarity score &gt;= 0.2 and number of genes count &gt;= 10 were considered. "NA" indicates there were no significant terms found, data structure for each term is as follows: (Pathways, Enrichment FDR (False Discovery Rate), Number of Genes, Pathway Genes, Fold Enrichment). Terms were imported from ShinyGO &lt;http://bioinformatics.sdstate.edu/go/&gt;; Setting that was used is as follows: FDR cutoff (0.05), # pathways to show (20), Pathway size min, max (2, 2000), Remove Redundancy (True), Abbreviate pathways (True).</t>
     </r>
+  </si>
+  <si>
+    <t>DEG proportion (%) (# of DEG / # of Genes) * 100</t>
+  </si>
+  <si>
+    <t># of Genes</t>
+  </si>
+  <si>
+    <t># of DEG</t>
   </si>
 </sst>
 </file>
@@ -2747,7 +2753,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -2776,10 +2782,10 @@
         <v>489</v>
       </c>
       <c r="I3" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>492</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -2808,10 +2814,10 @@
         <v>30</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>494</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -2840,10 +2846,10 @@
         <v>28</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -2872,10 +2878,10 @@
         <v>26</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -2904,10 +2910,10 @@
         <v>26</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -2936,10 +2942,10 @@
         <v>26</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -2968,10 +2974,10 @@
         <v>24</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -3000,10 +3006,10 @@
         <v>21</v>
       </c>
       <c r="I10" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>499</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -3032,10 +3038,10 @@
         <v>19</v>
       </c>
       <c r="I11" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>501</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -3064,10 +3070,10 @@
         <v>17</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -3096,10 +3102,10 @@
         <v>17</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -3128,10 +3134,10 @@
         <v>17</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -3160,10 +3166,10 @@
         <v>17</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -3192,10 +3198,10 @@
         <v>16</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -3354,10 +3360,10 @@
         <v>28</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -3386,10 +3392,10 @@
         <v>27</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -3418,10 +3424,10 @@
         <v>24</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -3450,10 +3456,10 @@
         <v>22</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -3482,10 +3488,10 @@
         <v>22</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -3514,10 +3520,10 @@
         <v>21</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -3546,10 +3552,10 @@
         <v>20</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -3578,10 +3584,10 @@
         <v>19</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -3610,10 +3616,10 @@
         <v>18</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -3642,10 +3648,10 @@
         <v>17</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -3674,10 +3680,10 @@
         <v>17</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -3706,10 +3712,10 @@
         <v>16</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -3738,10 +3744,10 @@
         <v>16</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -3770,10 +3776,10 @@
         <v>14</v>
       </c>
       <c r="I35" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>510</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -3802,10 +3808,10 @@
         <v>14</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -3834,10 +3840,10 @@
         <v>12</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -3866,10 +3872,10 @@
         <v>12</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
@@ -3898,10 +3904,10 @@
         <v>12</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
@@ -3930,10 +3936,10 @@
         <v>24</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
@@ -3962,10 +3968,10 @@
         <v>21</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -3994,10 +4000,10 @@
         <v>20</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
@@ -4026,10 +4032,10 @@
         <v>19</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
@@ -4396,10 +4402,10 @@
         <v>19</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
@@ -4428,10 +4434,10 @@
         <v>15</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
@@ -4460,10 +4466,10 @@
         <v>14</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
@@ -4492,10 +4498,10 @@
         <v>14</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
@@ -4524,10 +4530,10 @@
         <v>13</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
@@ -4556,10 +4562,10 @@
         <v>11</v>
       </c>
       <c r="I62" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="J62" s="1" t="s">
         <v>520</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
@@ -4588,10 +4594,10 @@
         <v>11</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
@@ -4620,10 +4626,10 @@
         <v>10</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
@@ -4886,10 +4892,10 @@
         <v>62</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
@@ -4918,10 +4924,10 @@
         <v>58</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
@@ -4950,10 +4956,10 @@
         <v>53</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
@@ -4982,10 +4988,10 @@
         <v>51</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
@@ -5014,10 +5020,10 @@
         <v>47</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
@@ -5046,10 +5052,10 @@
         <v>46</v>
       </c>
       <c r="I79" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="J79" s="1" t="s">
         <v>528</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
@@ -5078,10 +5084,10 @@
         <v>41</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
@@ -5474,10 +5480,10 @@
         <v>21</v>
       </c>
       <c r="I95" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="J95" s="1" t="s">
         <v>531</v>
-      </c>
-      <c r="J95" s="1" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
@@ -5506,10 +5512,10 @@
         <v>14</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
@@ -5928,10 +5934,10 @@
         <v>59</v>
       </c>
       <c r="I112" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="J112" s="1" t="s">
         <v>534</v>
-      </c>
-      <c r="J112" s="1" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
@@ -5960,10 +5966,10 @@
         <v>54</v>
       </c>
       <c r="I113" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="J113" s="1" t="s">
         <v>536</v>
-      </c>
-      <c r="J113" s="1" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
@@ -5992,10 +5998,10 @@
         <v>51</v>
       </c>
       <c r="I114" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="J114" s="1" t="s">
         <v>538</v>
-      </c>
-      <c r="J114" s="1" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
@@ -6024,10 +6030,10 @@
         <v>48</v>
       </c>
       <c r="I115" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="J115" s="1" t="s">
         <v>540</v>
-      </c>
-      <c r="J115" s="1" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
@@ -6056,10 +6062,10 @@
         <v>43</v>
       </c>
       <c r="I116" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="J116" s="1" t="s">
         <v>542</v>
-      </c>
-      <c r="J116" s="1" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
@@ -6088,10 +6094,10 @@
         <v>42</v>
       </c>
       <c r="I117" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="J117" s="1" t="s">
         <v>544</v>
-      </c>
-      <c r="J117" s="1" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
@@ -6120,10 +6126,10 @@
         <v>42</v>
       </c>
       <c r="I118" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="J118" s="1" t="s">
         <v>546</v>
-      </c>
-      <c r="J118" s="1" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
@@ -6152,10 +6158,10 @@
         <v>39</v>
       </c>
       <c r="I119" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="J119" s="1" t="s">
         <v>548</v>
-      </c>
-      <c r="J119" s="1" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
@@ -6184,10 +6190,10 @@
         <v>38</v>
       </c>
       <c r="I120" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="J120" s="1" t="s">
         <v>550</v>
-      </c>
-      <c r="J120" s="1" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
@@ -6216,10 +6222,10 @@
         <v>37</v>
       </c>
       <c r="I121" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="J121" s="1" t="s">
         <v>552</v>
-      </c>
-      <c r="J121" s="1" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
@@ -6248,10 +6254,10 @@
         <v>37</v>
       </c>
       <c r="I122" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="J122" s="1" t="s">
         <v>554</v>
-      </c>
-      <c r="J122" s="1" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
@@ -6280,10 +6286,10 @@
         <v>35</v>
       </c>
       <c r="I123" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="J123" s="1" t="s">
         <v>556</v>
-      </c>
-      <c r="J123" s="1" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
@@ -6312,10 +6318,10 @@
         <v>33</v>
       </c>
       <c r="I124" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J124" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="J124" s="1" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
@@ -6344,10 +6350,10 @@
         <v>31</v>
       </c>
       <c r="I125" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="J125" s="1" t="s">
         <v>560</v>
-      </c>
-      <c r="J125" s="1" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
@@ -6376,10 +6382,10 @@
         <v>31</v>
       </c>
       <c r="I126" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="J126" s="1" t="s">
         <v>562</v>
-      </c>
-      <c r="J126" s="1" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
@@ -6408,10 +6414,10 @@
         <v>31</v>
       </c>
       <c r="I127" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="J127" s="1" t="s">
         <v>564</v>
-      </c>
-      <c r="J127" s="1" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
@@ -6440,10 +6446,10 @@
         <v>28</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
@@ -6810,10 +6816,10 @@
         <v>38</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
@@ -6842,10 +6848,10 @@
         <v>33</v>
       </c>
       <c r="I143" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="J143" s="1" t="s">
         <v>568</v>
-      </c>
-      <c r="J143" s="1" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
@@ -6874,10 +6880,10 @@
         <v>32</v>
       </c>
       <c r="I144" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="J144" s="1" t="s">
         <v>570</v>
-      </c>
-      <c r="J144" s="1" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
@@ -6906,10 +6912,10 @@
         <v>30</v>
       </c>
       <c r="I145" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="J145" s="1" t="s">
         <v>572</v>
-      </c>
-      <c r="J145" s="1" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
@@ -6938,10 +6944,10 @@
         <v>30</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
@@ -7282,10 +7288,10 @@
         <v>69</v>
       </c>
       <c r="I159" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="J159" s="1" t="s">
         <v>575</v>
-      </c>
-      <c r="J159" s="1" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.2">
@@ -7314,10 +7320,10 @@
         <v>63</v>
       </c>
       <c r="I160" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="J160" s="1" t="s">
         <v>577</v>
-      </c>
-      <c r="J160" s="1" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
@@ -7346,10 +7352,10 @@
         <v>61</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
@@ -7378,10 +7384,10 @@
         <v>54</v>
       </c>
       <c r="I162" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="J162" s="1" t="s">
         <v>580</v>
-      </c>
-      <c r="J162" s="1" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.2">
@@ -7410,10 +7416,10 @@
         <v>54</v>
       </c>
       <c r="I163" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="J163" s="1" t="s">
         <v>582</v>
-      </c>
-      <c r="J163" s="1" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
@@ -7442,10 +7448,10 @@
         <v>53</v>
       </c>
       <c r="I164" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="J164" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="J164" s="1" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
@@ -7474,10 +7480,10 @@
         <v>47</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
@@ -7506,10 +7512,10 @@
         <v>47</v>
       </c>
       <c r="I166" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="J166" s="1" t="s">
         <v>587</v>
-      </c>
-      <c r="J166" s="1" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.2">
@@ -7538,10 +7544,10 @@
         <v>46</v>
       </c>
       <c r="I167" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="J167" s="1" t="s">
         <v>589</v>
-      </c>
-      <c r="J167" s="1" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.2">
@@ -7570,10 +7576,10 @@
         <v>46</v>
       </c>
       <c r="I168" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="J168" s="1" t="s">
         <v>591</v>
-      </c>
-      <c r="J168" s="1" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.2">
@@ -7602,10 +7608,10 @@
         <v>45</v>
       </c>
       <c r="I169" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="J169" s="1" t="s">
         <v>593</v>
-      </c>
-      <c r="J169" s="1" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.2">
@@ -7634,10 +7640,10 @@
         <v>43</v>
       </c>
       <c r="I170" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="J170" s="1" t="s">
         <v>595</v>
-      </c>
-      <c r="J170" s="1" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.2">
@@ -7666,10 +7672,10 @@
         <v>43</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.2">
@@ -7698,10 +7704,10 @@
         <v>42</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.2">
@@ -7730,10 +7736,10 @@
         <v>41</v>
       </c>
       <c r="I173" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="J173" s="1" t="s">
         <v>599</v>
-      </c>
-      <c r="J173" s="1" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.2">
@@ -7762,10 +7768,10 @@
         <v>34</v>
       </c>
       <c r="I174" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="J174" s="1" t="s">
         <v>601</v>
-      </c>
-      <c r="J174" s="1" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.2">
@@ -7794,10 +7800,10 @@
         <v>32</v>
       </c>
       <c r="I175" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="J175" s="1" t="s">
         <v>603</v>
-      </c>
-      <c r="J175" s="1" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.2">
@@ -7826,10 +7832,10 @@
         <v>31</v>
       </c>
       <c r="I176" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="J176" s="1" t="s">
         <v>605</v>
-      </c>
-      <c r="J176" s="1" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.2">
@@ -7858,10 +7864,10 @@
         <v>27</v>
       </c>
       <c r="I177" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="J177" s="1" t="s">
         <v>607</v>
-      </c>
-      <c r="J177" s="1" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.2">
@@ -7890,10 +7896,10 @@
         <v>27</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J178" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.2">
@@ -7922,10 +7928,10 @@
         <v>27</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J179" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.2">
@@ -7954,10 +7960,10 @@
         <v>26</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J180" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.2">
@@ -7986,10 +7992,10 @@
         <v>22</v>
       </c>
       <c r="I181" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="J181" s="1" t="s">
         <v>610</v>
-      </c>
-      <c r="J181" s="1" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.2">
@@ -8018,10 +8024,10 @@
         <v>21</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J182" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.2">
@@ -8050,10 +8056,10 @@
         <v>21</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J183" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.2">
@@ -8082,10 +8088,10 @@
         <v>21</v>
       </c>
       <c r="I184" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="J184" s="1" t="s">
         <v>613</v>
-      </c>
-      <c r="J184" s="1" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.2">
@@ -8114,10 +8120,10 @@
         <v>20</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="J185" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.2">
@@ -8146,10 +8152,10 @@
         <v>19</v>
       </c>
       <c r="I186" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J186" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.2">
@@ -8178,10 +8184,10 @@
         <v>19</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.2">
@@ -8210,10 +8216,10 @@
         <v>19</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="J188" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.2">
@@ -8242,10 +8248,10 @@
         <v>19</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J189" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.2">
@@ -8820,10 +8826,10 @@
         <v>47</v>
       </c>
       <c r="I211" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="J211" s="1" t="s">
         <v>619</v>
-      </c>
-      <c r="J211" s="1" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.2">
@@ -8852,10 +8858,10 @@
         <v>43</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J212" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.2">
@@ -8884,10 +8890,10 @@
         <v>43</v>
       </c>
       <c r="I213" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J213" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.2">
@@ -8916,10 +8922,10 @@
         <v>39</v>
       </c>
       <c r="I214" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J214" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.2">
@@ -8948,10 +8954,10 @@
         <v>36</v>
       </c>
       <c r="I215" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="J215" s="1" t="s">
         <v>624</v>
-      </c>
-      <c r="J215" s="1" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.2">
@@ -8980,10 +8986,10 @@
         <v>33</v>
       </c>
       <c r="I216" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J216" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.2">
@@ -9298,10 +9304,10 @@
         <v>62</v>
       </c>
       <c r="I228" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="J228" s="1" t="s">
         <v>627</v>
-      </c>
-      <c r="J228" s="1" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.2">
@@ -9330,10 +9336,10 @@
         <v>47</v>
       </c>
       <c r="I229" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="J229" s="1" t="s">
         <v>629</v>
-      </c>
-      <c r="J229" s="1" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.2">
@@ -9362,10 +9368,10 @@
         <v>46</v>
       </c>
       <c r="I230" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="J230" s="1" t="s">
         <v>631</v>
-      </c>
-      <c r="J230" s="1" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.2">
@@ -9394,10 +9400,10 @@
         <v>43</v>
       </c>
       <c r="I231" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J231" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.2">
@@ -9426,10 +9432,10 @@
         <v>43</v>
       </c>
       <c r="I232" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="J232" s="1" t="s">
         <v>634</v>
-      </c>
-      <c r="J232" s="1" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.2">
@@ -9458,10 +9464,10 @@
         <v>41</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J233" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.2">
@@ -9490,10 +9496,10 @@
         <v>41</v>
       </c>
       <c r="I234" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="J234" s="1" t="s">
         <v>637</v>
-      </c>
-      <c r="J234" s="1" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.2">
@@ -9522,10 +9528,10 @@
         <v>40</v>
       </c>
       <c r="I235" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="J235" s="1" t="s">
         <v>639</v>
-      </c>
-      <c r="J235" s="1" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.2">
@@ -9554,10 +9560,10 @@
         <v>39</v>
       </c>
       <c r="I236" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="J236" s="1" t="s">
         <v>641</v>
-      </c>
-      <c r="J236" s="1" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.2">
@@ -9586,10 +9592,10 @@
         <v>36</v>
       </c>
       <c r="I237" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="J237" s="1" t="s">
         <v>643</v>
-      </c>
-      <c r="J237" s="1" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.2">
@@ -9618,10 +9624,10 @@
         <v>36</v>
       </c>
       <c r="I238" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="J238" s="1" t="s">
         <v>645</v>
-      </c>
-      <c r="J238" s="1" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.2">
@@ -9650,10 +9656,10 @@
         <v>35</v>
       </c>
       <c r="I239" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="J239" s="1" t="s">
         <v>647</v>
-      </c>
-      <c r="J239" s="1" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.2">
@@ -9682,10 +9688,10 @@
         <v>32</v>
       </c>
       <c r="I240" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="J240" s="1" t="s">
         <v>649</v>
-      </c>
-      <c r="J240" s="1" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.2">
@@ -9714,10 +9720,10 @@
         <v>31</v>
       </c>
       <c r="I241" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="J241" s="1" t="s">
         <v>651</v>
-      </c>
-      <c r="J241" s="1" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.2">
@@ -9746,10 +9752,10 @@
         <v>28</v>
       </c>
       <c r="I242" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="J242" s="1" t="s">
         <v>653</v>
-      </c>
-      <c r="J242" s="1" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.2">
@@ -9778,10 +9784,10 @@
         <v>28</v>
       </c>
       <c r="I243" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="J243" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.2">
@@ -9810,10 +9816,10 @@
         <v>28</v>
       </c>
       <c r="I244" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="J244" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.2">
@@ -9842,10 +9848,10 @@
         <v>28</v>
       </c>
       <c r="I245" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="J245" s="1" t="s">
         <v>657</v>
-      </c>
-      <c r="J245" s="1" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.2">
@@ -9874,10 +9880,10 @@
         <v>42</v>
       </c>
       <c r="I246" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J246" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.2">
@@ -9906,10 +9912,10 @@
         <v>42</v>
       </c>
       <c r="I247" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J247" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.2">
@@ -9938,10 +9944,10 @@
         <v>41</v>
       </c>
       <c r="I248" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J248" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.2">
@@ -9970,10 +9976,10 @@
         <v>38</v>
       </c>
       <c r="I249" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J249" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.2">
@@ -10002,10 +10008,10 @@
         <v>34</v>
       </c>
       <c r="I250" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J250" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.2">
@@ -10034,10 +10040,10 @@
         <v>33</v>
       </c>
       <c r="I251" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J251" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.2">
@@ -10066,10 +10072,10 @@
         <v>32</v>
       </c>
       <c r="I252" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J252" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.2">
@@ -10098,10 +10104,10 @@
         <v>29</v>
       </c>
       <c r="I253" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J253" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.2">
@@ -10130,10 +10136,10 @@
         <v>28</v>
       </c>
       <c r="I254" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J254" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.2">
@@ -10162,10 +10168,10 @@
         <v>26</v>
       </c>
       <c r="I255" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J255" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.2">
@@ -10194,10 +10200,10 @@
         <v>25</v>
       </c>
       <c r="I256" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J256" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.2">
@@ -10226,10 +10232,10 @@
         <v>24</v>
       </c>
       <c r="I257" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J257" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.2">
@@ -10258,10 +10264,10 @@
         <v>24</v>
       </c>
       <c r="I258" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="J258" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.2">
@@ -10290,10 +10296,10 @@
         <v>24</v>
       </c>
       <c r="I259" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J259" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.2">
@@ -10322,10 +10328,10 @@
         <v>24</v>
       </c>
       <c r="I260" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J260" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.2">
@@ -10406,10 +10412,10 @@
         <v>52</v>
       </c>
       <c r="I263" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="J263" s="1" t="s">
         <v>670</v>
-      </c>
-      <c r="J263" s="1" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.2">
@@ -10438,10 +10444,10 @@
         <v>47</v>
       </c>
       <c r="I264" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="J264" s="1" t="s">
         <v>672</v>
-      </c>
-      <c r="J264" s="1" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.2">
@@ -10470,10 +10476,10 @@
         <v>44</v>
       </c>
       <c r="I265" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="J265" s="1" t="s">
         <v>674</v>
-      </c>
-      <c r="J265" s="1" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.2">
@@ -10502,10 +10508,10 @@
         <v>40</v>
       </c>
       <c r="I266" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="J266" s="1" t="s">
         <v>676</v>
-      </c>
-      <c r="J266" s="1" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.2">
@@ -10534,10 +10540,10 @@
         <v>39</v>
       </c>
       <c r="I267" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J267" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.2">
@@ -10566,10 +10572,10 @@
         <v>38</v>
       </c>
       <c r="I268" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J268" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.2">
@@ -10598,10 +10604,10 @@
         <v>37</v>
       </c>
       <c r="I269" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="J269" s="1" t="s">
         <v>680</v>
-      </c>
-      <c r="J269" s="1" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.2">
@@ -10630,10 +10636,10 @@
         <v>37</v>
       </c>
       <c r="I270" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="J270" s="1" t="s">
         <v>682</v>
-      </c>
-      <c r="J270" s="1" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.2">
@@ -10662,10 +10668,10 @@
         <v>37</v>
       </c>
       <c r="I271" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="J271" s="1" t="s">
         <v>684</v>
-      </c>
-      <c r="J271" s="1" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.2">
@@ -10694,10 +10700,10 @@
         <v>36</v>
       </c>
       <c r="I272" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="J272" s="1" t="s">
         <v>686</v>
-      </c>
-      <c r="J272" s="1" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.2">
@@ -10726,10 +10732,10 @@
         <v>34</v>
       </c>
       <c r="I273" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J273" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.2">
@@ -10758,10 +10764,10 @@
         <v>31</v>
       </c>
       <c r="I274" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="J274" s="1" t="s">
         <v>688</v>
-      </c>
-      <c r="J274" s="1" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.2">
@@ -10790,10 +10796,10 @@
         <v>30</v>
       </c>
       <c r="I275" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J275" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.2">
@@ -10822,10 +10828,10 @@
         <v>30</v>
       </c>
       <c r="I276" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J276" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.2">
@@ -10854,10 +10860,10 @@
         <v>30</v>
       </c>
       <c r="I277" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J277" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.2">
@@ -10886,10 +10892,10 @@
         <v>30</v>
       </c>
       <c r="I278" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J278" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.2">
@@ -10918,10 +10924,10 @@
         <v>30</v>
       </c>
       <c r="I279" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J279" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.2">
@@ -10950,10 +10956,10 @@
         <v>12</v>
       </c>
       <c r="I280" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J280" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.2">
@@ -10982,10 +10988,10 @@
         <v>12</v>
       </c>
       <c r="I281" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J281" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.2">
@@ -11014,10 +11020,10 @@
         <v>10</v>
       </c>
       <c r="I282" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="J282" s="1" t="s">
         <v>695</v>
-      </c>
-      <c r="J282" s="1" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.2">
@@ -11800,10 +11806,10 @@
         <v>31</v>
       </c>
       <c r="I312" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J312" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.2">
@@ -11832,10 +11838,10 @@
         <v>28</v>
       </c>
       <c r="I313" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J313" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.2">
@@ -11864,10 +11870,10 @@
         <v>27</v>
       </c>
       <c r="I314" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="J314" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.2">
@@ -11896,10 +11902,10 @@
         <v>24</v>
       </c>
       <c r="I315" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="J315" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.2">
@@ -11928,10 +11934,10 @@
         <v>22</v>
       </c>
       <c r="I316" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="J316" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.2">
@@ -11960,10 +11966,10 @@
         <v>22</v>
       </c>
       <c r="I317" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J317" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.2">
@@ -11992,10 +11998,10 @@
         <v>21</v>
       </c>
       <c r="I318" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="J318" s="1" t="s">
         <v>702</v>
-      </c>
-      <c r="J318" s="1" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.2">
@@ -12024,10 +12030,10 @@
         <v>21</v>
       </c>
       <c r="I319" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J319" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.2">
@@ -12056,10 +12062,10 @@
         <v>17</v>
       </c>
       <c r="I320" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="J320" s="1" t="s">
         <v>705</v>
-      </c>
-      <c r="J320" s="1" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.2">
@@ -12088,10 +12094,10 @@
         <v>16</v>
       </c>
       <c r="I321" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J321" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.2">
@@ -12120,10 +12126,10 @@
         <v>14</v>
       </c>
       <c r="I322" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="J322" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.2">
@@ -12152,10 +12158,10 @@
         <v>14</v>
       </c>
       <c r="I323" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J323" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.2">
@@ -12184,10 +12190,10 @@
         <v>14</v>
       </c>
       <c r="I324" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J324" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.2">
@@ -12294,10 +12300,10 @@
         <v>29</v>
       </c>
       <c r="I328" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J328" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.2">
@@ -12326,10 +12332,10 @@
         <v>26</v>
       </c>
       <c r="I329" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J329" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.2">
@@ -12358,10 +12364,10 @@
         <v>25</v>
       </c>
       <c r="I330" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J330" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.2">
@@ -12390,10 +12396,10 @@
         <v>23</v>
       </c>
       <c r="I331" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J331" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.2">
@@ -12422,10 +12428,10 @@
         <v>22</v>
       </c>
       <c r="I332" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J332" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.2">
@@ -12454,10 +12460,10 @@
         <v>21</v>
       </c>
       <c r="I333" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="J333" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.2">
@@ -12486,10 +12492,10 @@
         <v>20</v>
       </c>
       <c r="I334" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J334" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.2">
@@ -12518,10 +12524,10 @@
         <v>19</v>
       </c>
       <c r="I335" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J335" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.2">
@@ -12550,10 +12556,10 @@
         <v>18</v>
       </c>
       <c r="I336" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J336" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.2">
@@ -12764,10 +12770,10 @@
         <v>22</v>
       </c>
       <c r="I344" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J344" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.2">
@@ -12796,10 +12802,10 @@
         <v>21</v>
       </c>
       <c r="I345" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="J345" s="1" t="s">
         <v>716</v>
-      </c>
-      <c r="J345" s="1" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.2">
@@ -13218,10 +13224,10 @@
         <v>28</v>
       </c>
       <c r="I361" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J361" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.2">
@@ -13250,10 +13256,10 @@
         <v>25</v>
       </c>
       <c r="I362" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J362" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.2">
@@ -13282,10 +13288,10 @@
         <v>21</v>
       </c>
       <c r="I363" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J363" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.2">
@@ -13314,10 +13320,10 @@
         <v>21</v>
       </c>
       <c r="I364" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J364" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.2">
@@ -13346,10 +13352,10 @@
         <v>19</v>
       </c>
       <c r="I365" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J365" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.2">
@@ -13378,10 +13384,10 @@
         <v>18</v>
       </c>
       <c r="I366" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J366" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.2">
@@ -13410,10 +13416,10 @@
         <v>18</v>
       </c>
       <c r="I367" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="J367" s="1" t="s">
         <v>723</v>
-      </c>
-      <c r="J367" s="1" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.2">
@@ -13442,10 +13448,10 @@
         <v>15</v>
       </c>
       <c r="I368" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J368" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.2">
@@ -13474,10 +13480,10 @@
         <v>15</v>
       </c>
       <c r="I369" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J369" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.2">
@@ -13506,10 +13512,10 @@
         <v>14</v>
       </c>
       <c r="I370" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J370" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.2">
@@ -13538,10 +13544,10 @@
         <v>14</v>
       </c>
       <c r="I371" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J371" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.2">
@@ -13726,10 +13732,10 @@
         <v>13</v>
       </c>
       <c r="I378" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J378" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.2">
@@ -13758,10 +13764,10 @@
         <v>13</v>
       </c>
       <c r="I379" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J379" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.2">
@@ -13790,10 +13796,10 @@
         <v>13</v>
       </c>
       <c r="I380" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J380" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.2">
@@ -13822,10 +13828,10 @@
         <v>10</v>
       </c>
       <c r="I381" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J381" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.2">
@@ -13854,10 +13860,10 @@
         <v>10</v>
       </c>
       <c r="I382" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="J382" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.2">
@@ -13886,10 +13892,10 @@
         <v>10</v>
       </c>
       <c r="I383" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J383" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.2">
@@ -14204,10 +14210,10 @@
         <v>38</v>
       </c>
       <c r="I395" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J395" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="396" spans="1:10" x14ac:dyDescent="0.2">
@@ -14236,10 +14242,10 @@
         <v>36</v>
       </c>
       <c r="I396" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="J396" s="1" t="s">
         <v>731</v>
-      </c>
-      <c r="J396" s="1" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="397" spans="1:10" x14ac:dyDescent="0.2">
@@ -14268,10 +14274,10 @@
         <v>35</v>
       </c>
       <c r="I397" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J397" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.2">
@@ -14300,10 +14306,10 @@
         <v>34</v>
       </c>
       <c r="I398" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J398" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="399" spans="1:10" x14ac:dyDescent="0.2">
@@ -14332,10 +14338,10 @@
         <v>34</v>
       </c>
       <c r="I399" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J399" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.2">
@@ -14364,10 +14370,10 @@
         <v>29</v>
       </c>
       <c r="I400" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="J400" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="401" spans="1:10" x14ac:dyDescent="0.2">
@@ -14396,10 +14402,10 @@
         <v>29</v>
       </c>
       <c r="I401" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="J401" s="1" t="s">
         <v>737</v>
-      </c>
-      <c r="J401" s="1" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="402" spans="1:10" x14ac:dyDescent="0.2">
@@ -14428,10 +14434,10 @@
         <v>29</v>
       </c>
       <c r="I402" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="J402" s="1" t="s">
         <v>739</v>
-      </c>
-      <c r="J402" s="1" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="403" spans="1:10" x14ac:dyDescent="0.2">
@@ -14460,10 +14466,10 @@
         <v>29</v>
       </c>
       <c r="I403" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J403" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="404" spans="1:10" x14ac:dyDescent="0.2">
@@ -14492,10 +14498,10 @@
         <v>28</v>
       </c>
       <c r="I404" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J404" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="405" spans="1:10" x14ac:dyDescent="0.2">
@@ -14524,10 +14530,10 @@
         <v>26</v>
       </c>
       <c r="I405" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J405" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="406" spans="1:10" x14ac:dyDescent="0.2">
@@ -14556,10 +14562,10 @@
         <v>25</v>
       </c>
       <c r="I406" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J406" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="407" spans="1:10" x14ac:dyDescent="0.2">
@@ -14588,10 +14594,10 @@
         <v>24</v>
       </c>
       <c r="I407" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J407" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="408" spans="1:10" x14ac:dyDescent="0.2">
@@ -15525,15 +15531,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C62C9B-CF81-C140-931F-FFD39D96F9E7}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -15541,10 +15545,16 @@
         <v>490</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+        <v>748</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -15552,11 +15562,17 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
+        <v>80</v>
+      </c>
+      <c r="D2" s="1">
+        <v>949</v>
+      </c>
+      <c r="E2" s="1">
         <v>8.43</v>
       </c>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -15564,11 +15580,17 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
+        <v>59</v>
+      </c>
+      <c r="D3" s="1">
+        <v>830</v>
+      </c>
+      <c r="E3" s="1">
         <v>7.11</v>
       </c>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -15576,11 +15598,17 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
+        <v>89</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1162</v>
+      </c>
+      <c r="E4" s="1">
         <v>7.66</v>
       </c>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -15588,11 +15616,17 @@
         <v>3</v>
       </c>
       <c r="C5" s="1">
+        <v>43</v>
+      </c>
+      <c r="D5" s="1">
+        <v>440</v>
+      </c>
+      <c r="E5" s="1">
         <v>9.77</v>
       </c>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -15600,11 +15634,17 @@
         <v>4</v>
       </c>
       <c r="C6" s="1">
+        <v>204</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2165</v>
+      </c>
+      <c r="E6" s="1">
         <v>9.42</v>
       </c>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -15612,11 +15652,17 @@
         <v>5</v>
       </c>
       <c r="C7" s="1">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2899</v>
+      </c>
+      <c r="E7" s="1">
         <v>0.79</v>
       </c>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -15624,11 +15670,17 @@
         <v>6</v>
       </c>
       <c r="C8" s="1">
+        <v>62</v>
+      </c>
+      <c r="D8" s="1">
+        <v>520</v>
+      </c>
+      <c r="E8" s="1">
         <v>11.92</v>
       </c>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -15636,11 +15688,18 @@
         <v>7</v>
       </c>
       <c r="C9" s="1">
+        <v>116</v>
+      </c>
+      <c r="D9" s="1">
+        <v>673</v>
+      </c>
+      <c r="E9" s="1">
         <v>17.239999999999998</v>
       </c>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="H9" s="1"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -15648,11 +15707,18 @@
         <v>9</v>
       </c>
       <c r="C10" s="1">
+        <v>134</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1263</v>
+      </c>
+      <c r="E10" s="1">
         <v>10.61</v>
       </c>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="H10" s="1"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -15660,11 +15726,17 @@
         <v>10</v>
       </c>
       <c r="C11" s="1">
+        <v>150</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2014</v>
+      </c>
+      <c r="E11" s="1">
         <v>7.45</v>
       </c>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -15672,11 +15744,17 @@
         <v>11</v>
       </c>
       <c r="C12" s="1">
+        <v>143</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1166</v>
+      </c>
+      <c r="E12" s="1">
         <v>12.26</v>
       </c>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -15684,11 +15762,18 @@
         <v>13</v>
       </c>
       <c r="C13" s="1">
+        <v>86</v>
+      </c>
+      <c r="D13" s="1">
+        <v>984</v>
+      </c>
+      <c r="E13" s="1">
         <v>8.74</v>
       </c>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="H13" s="1"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -15696,11 +15781,18 @@
         <v>14</v>
       </c>
       <c r="C14" s="1">
+        <v>54</v>
+      </c>
+      <c r="D14" s="1">
+        <v>928</v>
+      </c>
+      <c r="E14" s="1">
         <v>5.82</v>
       </c>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="H14" s="1"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>270</v>
       </c>
@@ -15708,11 +15800,17 @@
         <v>2</v>
       </c>
       <c r="C15" s="1">
+        <v>165</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2035</v>
+      </c>
+      <c r="E15" s="1">
         <v>8.11</v>
       </c>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>270</v>
       </c>
@@ -15720,11 +15818,17 @@
         <v>3</v>
       </c>
       <c r="C16" s="1">
+        <v>112</v>
+      </c>
+      <c r="D16" s="1">
+        <v>684</v>
+      </c>
+      <c r="E16" s="1">
         <v>16.37</v>
       </c>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>270</v>
       </c>
@@ -15732,11 +15836,17 @@
         <v>4</v>
       </c>
       <c r="C17" s="1">
+        <v>117</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1283</v>
+      </c>
+      <c r="E17" s="1">
         <v>9.1199999999999992</v>
       </c>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>270</v>
       </c>
@@ -15744,11 +15854,17 @@
         <v>5</v>
       </c>
       <c r="C18" s="1">
+        <v>128</v>
+      </c>
+      <c r="D18" s="1">
+        <v>607</v>
+      </c>
+      <c r="E18" s="1">
         <v>21.09</v>
       </c>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>270</v>
       </c>
@@ -15756,11 +15872,17 @@
         <v>6</v>
       </c>
       <c r="C19" s="1">
+        <v>22</v>
+      </c>
+      <c r="D19" s="1">
+        <v>43</v>
+      </c>
+      <c r="E19" s="1">
         <v>51.16</v>
       </c>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>270</v>
       </c>
@@ -15768,11 +15890,17 @@
         <v>7</v>
       </c>
       <c r="C20" s="1">
+        <v>175</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2078</v>
+      </c>
+      <c r="E20" s="1">
         <v>8.42</v>
       </c>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>270</v>
       </c>
@@ -15780,11 +15908,17 @@
         <v>8</v>
       </c>
       <c r="C21" s="1">
+        <v>68</v>
+      </c>
+      <c r="D21" s="1">
+        <v>923</v>
+      </c>
+      <c r="E21" s="1">
         <v>7.37</v>
       </c>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>270</v>
       </c>
@@ -15792,11 +15926,17 @@
         <v>9</v>
       </c>
       <c r="C22" s="1">
+        <v>90</v>
+      </c>
+      <c r="D22" s="1">
+        <v>751</v>
+      </c>
+      <c r="E22" s="1">
         <v>11.98</v>
       </c>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>270</v>
       </c>
@@ -15804,11 +15944,17 @@
         <v>10</v>
       </c>
       <c r="C23" s="1">
+        <v>102</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1498</v>
+      </c>
+      <c r="E23" s="1">
         <v>6.81</v>
       </c>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>270</v>
       </c>
@@ -15816,11 +15962,17 @@
         <v>11</v>
       </c>
       <c r="C24" s="1">
+        <v>70</v>
+      </c>
+      <c r="D24" s="1">
+        <v>923</v>
+      </c>
+      <c r="E24" s="1">
         <v>7.58</v>
       </c>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>270</v>
       </c>
@@ -15828,11 +15980,17 @@
         <v>12</v>
       </c>
       <c r="C25" s="1">
+        <v>28</v>
+      </c>
+      <c r="D25" s="1">
+        <v>545</v>
+      </c>
+      <c r="E25" s="1">
         <v>5.14</v>
       </c>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>270</v>
       </c>
@@ -15840,11 +15998,17 @@
         <v>14</v>
       </c>
       <c r="C26" s="1">
+        <v>112</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1003</v>
+      </c>
+      <c r="E26" s="1">
         <v>11.17</v>
       </c>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>270</v>
       </c>
@@ -15852,12 +16016,18 @@
         <v>15</v>
       </c>
       <c r="C27" s="1">
+        <v>6</v>
+      </c>
+      <c r="D27" s="1">
+        <v>20</v>
+      </c>
+      <c r="E27" s="1">
         <v>30</v>
       </c>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="G28" s="5"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="I28" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
